--- a/biology/Zoologie/Holothyrida/Holothyrida.xlsx
+++ b/biology/Zoologie/Holothyrida/Holothyrida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Holothyrida, ou holothyres en français, sont un ordre d'acariens parasitiformes. La phylogénie les placent comme un groupe frère de l'ordre des Ixodida.
 Une trentaine d'espèces et onze genres ont été décrits.
@@ -512,7 +524,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Allothyridae van der Hammen, 1972
 Holothyridae Thorell, 1882
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thon, 1905 : Neue Luftorgane bei Milben. Zoologischer Anzeiger, vol. 28 p. 585-594 (texte intégral)</t>
         </is>
